--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04448A23-394E-468D-846F-DBACA67C4D2B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6898F-CEAA-4E55-BEC8-D172065FAE95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="26">
   <si>
     <t>Algorithm</t>
   </si>
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -351,22 +359,11 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,7 +375,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A952BD8-B220-41E5-A483-4F1EA60C8C1C}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +686,7 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -702,18 +711,21 @@
       <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -729,11 +741,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -747,11 +759,11 @@
         <v>0.57825921628888799</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -764,9 +776,15 @@
       <c r="H4" s="7">
         <v>0.58937439244444401</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="26" t="s">
@@ -778,9 +796,33 @@
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="25">
+        <f>AVERAGE(H2:H13)</f>
+        <v>0.32433554681111082</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="25">
+        <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.29283862106049363</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.4661513169142853</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -790,12 +832,36 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="25">
+        <f>MAX(H2:H13)</f>
+        <v>0.58937439244444401</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="25">
+        <f>MAX(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.59292380700000002</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.3067435007444444</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -803,13 +869,13 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
       <c r="B8" s="27"/>
       <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -825,11 +891,11 @@
         <v>0.215382743122222</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -843,11 +909,11 @@
         <v>0.56299692901111098</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -861,8 +927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26" t="s">
@@ -875,8 +941,8 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -887,11 +953,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -899,15 +965,15 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -923,11 +989,11 @@
         <v>4.9088084211111098E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -941,11 +1007,11 @@
         <v>0.50187350095555505</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -958,9 +1024,12 @@
       <c r="H16" s="7">
         <v>0.5917285269</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="26" t="s">
@@ -972,9 +1041,16 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="25">
+        <f>AVERAGE(H14:H25)</f>
+        <v>0.39955070072777749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -984,12 +1060,19 @@
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="25">
+        <f>MAX(H14:H25)</f>
+        <v>0.59292380700000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -997,13 +1080,13 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
       <c r="B20" s="27"/>
       <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1019,11 +1102,11 @@
         <v>0.14205408913333301</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1037,11 +1120,11 @@
         <v>0.51963619616666601</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1138,8 @@
         <v>0.59292380700000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26" t="s">
@@ -1069,8 +1152,8 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -1081,11 +1164,11 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1093,13 +1176,13 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1115,11 +1198,11 @@
         <v>0.26026294760000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1133,15 +1216,15 @@
         <v>0.51580542577777699</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
       <c r="B28" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1156,12 +1239,15 @@
       <c r="H28" s="7">
         <v>1.4617743311111099E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1174,12 +1260,19 @@
       <c r="H29" s="7">
         <v>0.54815595633333303</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="25">
+        <f>AVERAGE(H26:H37)</f>
+        <v>0.31573548104166654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1192,9 +1285,16 @@
       <c r="H30" s="7">
         <v>0.58448795019999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="25">
+        <f>MAX(H26:H37)</f>
+        <v>0.58448795019999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="26" t="s">
@@ -1207,8 +1307,8 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -1220,10 +1320,10 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1232,12 +1332,12 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="27"/>
       <c r="C34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1254,10 +1354,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="29"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1272,10 +1372,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1390,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="26" t="s">
@@ -1304,7 +1404,7 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -1316,10 +1416,10 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1335,14 +1435,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1359,6 +1451,14 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E925FDC9-2179-4AD2-AF88-E946D747B133}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1514,11 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="N1" s="25">
+        <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.36170938532716007</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1424,10 +1528,10 @@
       <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1441,13 +1545,20 @@
       </c>
       <c r="H2" s="21">
         <v>1.7982740000000001E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="25">
+        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.59682327546666603</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1459,13 +1570,16 @@
       </c>
       <c r="H3" s="7">
         <v>0.51527113586666595</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1477,6 +1591,19 @@
       </c>
       <c r="H4" s="18">
         <v>0.59682327546666603</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>7.2337368666666443E-2</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1501,25 +1628,25 @@
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
         <v>0.30914553056481431</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
         <v>0.28132094229506144</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
         <v>0.49562195778148094</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1543,33 +1670,33 @@
       <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="25">
         <f>MAX(H2:H13)</f>
         <v>0.59682327546666603</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="25">
         <f>MAX(H8:H13,H20:H25,H32:H37)</f>
         <v>0.59511748099999995</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="25">
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.39658616498518479</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1581,6 +1708,9 @@
       </c>
       <c r="H7" s="24" t="s">
         <v>22</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1589,7 +1719,7 @@
       <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1603,13 +1733,23 @@
       </c>
       <c r="H8" s="7">
         <v>0.185732194766666</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>0.185732194766666</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1621,13 +1761,23 @@
       </c>
       <c r="H9" s="7">
         <v>0.53906383728888796</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.54216390586666596</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1639,6 +1789,16 @@
       </c>
       <c r="H10" s="7">
         <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.59682327546666603</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1681,9 +1841,9 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1865,7 @@
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1725,7 +1885,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1903,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1755,6 +1915,9 @@
       </c>
       <c r="H16" s="7">
         <v>0.59423277059999902</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1779,7 +1942,7 @@
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="25">
         <f>AVERAGE(H14:H25)</f>
         <v>0.36907940788703675</v>
       </c>
@@ -1804,7 +1967,7 @@
       <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="25">
         <f>MAX(H14:H25)</f>
         <v>0.59511748099999995</v>
       </c>
@@ -1812,8 +1975,8 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1996,7 @@
       <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1853,7 +2016,7 @@
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +2034,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1925,9 +2088,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2112,7 @@
       <c r="C26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1969,7 +2132,7 @@
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2150,7 @@
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1999,6 +2162,9 @@
       </c>
       <c r="H28" s="7">
         <v>0.59334346284444395</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2189,7 @@
       <c r="J29" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="25">
         <f>AVERAGE(H26:H37)</f>
         <v>0.28632055298148118</v>
       </c>
@@ -2048,7 +2214,7 @@
       <c r="J30" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="25">
         <f>MAX(H26:H37)</f>
         <v>0.59334346284444395</v>
       </c>
@@ -2056,8 +2222,8 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +2243,7 @@
       <c r="C32" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2097,7 +2263,7 @@
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2281,7 @@
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2168,10 +2334,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2193,6 +2359,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2209,12 +2381,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2223,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E51EA9-6C08-4C14-9E0B-CBABD31F3DFD}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2407,7 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2266,18 +2432,28 @@
       <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="25">
+        <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.32774610072916643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2292,24 +2468,34 @@
       <c r="H2" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="25">
+        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.58516912626666595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2322,8 +2508,21 @@
       <c r="H4" s="7">
         <v>0.58266619024444399</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>6.4771732155555387E-2</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -2336,8 +2535,32 @@
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="25">
+        <f>AVERAGE(H2:H13)</f>
+        <v>0.19126785529444423</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="25">
+        <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.25241906886666637</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.47838103710277724</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2348,26 +2571,53 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="25">
+        <f>MAX(H2:H13)</f>
+        <v>0.58266619024444399</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="25">
+        <f>MAX(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.58650722099999997</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.38986113590370347</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M7" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2382,24 +2632,44 @@
       <c r="H8" s="7">
         <v>0.182405230933333</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>0.195720802366666</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.53181212173333303</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2412,8 +2682,18 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.58650722099999997</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2427,7 +2707,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -2439,11 +2719,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2731,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="26" t="s">
         <v>11</v>
@@ -2459,7 +2739,7 @@
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2475,11 +2755,11 @@
         <v>1.05043596333333E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2493,11 +2773,11 @@
         <v>0.34713133086666598</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2510,8 +2790,11 @@
       <c r="H16" s="7">
         <v>0.58516912626666595</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -2524,8 +2807,15 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="25">
+        <f>AVERAGE(H14:H25)</f>
+        <v>0.37614082697777745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -2536,12 +2826,19 @@
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="25">
+        <f>MAX(H14:H25)</f>
+        <v>0.58650722099999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2549,13 +2846,13 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2571,11 +2868,11 @@
         <v>0.195720802366666</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2589,11 +2886,11 @@
         <v>0.53181212173333303</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2904,7 @@
         <v>0.58650722099999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2621,7 +2918,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -2633,11 +2930,11 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2942,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="26" t="s">
         <v>16</v>
@@ -2653,7 +2950,7 @@
       <c r="C26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2669,11 +2966,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2687,11 +2984,11 @@
         <v>0.51167352091111096</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2704,8 +3001,11 @@
       <c r="H28" s="7">
         <v>0.58482427791111102</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2718,8 +3018,15 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="25">
+        <f>AVERAGE(H26:H37)</f>
+        <v>0.26990082895370349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2730,12 +3037,19 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="25">
+        <f>MAX(H26:H37)</f>
+        <v>0.58482427791111102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2743,13 +3057,13 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2769,7 +3083,7 @@
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +3101,7 @@
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2828,10 +3142,10 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2847,16 +3161,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -2869,6 +3173,16 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD5304F-4181-46C4-87D3-D97EFD8C5A53}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="P8" sqref="P8:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +3208,7 @@
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2919,18 +3233,28 @@
       <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="25">
+        <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.31257815291296254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2945,12 +3269,19 @@
       <c r="H2" s="7">
         <v>0.13353994224444399</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="25">
+        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.52503401986666598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2963,12 +3294,15 @@
       <c r="H3" s="7">
         <v>0.38860958899999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2981,8 +3315,22 @@
       <c r="H4" s="7">
         <v>0.49076971618888798</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>0.1028735917244443</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -3001,8 +3349,32 @@
       <c r="H5" s="7">
         <v>0.1248973068</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="25">
+        <f>AVERAGE(H2:H13)</f>
+        <v>0.32148694479222184</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="25">
+        <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.32201748269444402</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.37813838577444386</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -3019,12 +3391,36 @@
       <c r="H6" s="7">
         <v>0.37946079639999902</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="25">
+        <f>MAX(H2:H13)</f>
+        <v>0.49076971618888798</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="25">
+        <f>MAX(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.52101366668888804</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.50455772554861045</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3037,14 +3433,17 @@
       <c r="H7" s="7">
         <v>0.48985081473333297</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M7" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3059,12 +3458,22 @@
       <c r="H8" s="7">
         <v>0.23540060032222199</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>0.23540060032222199</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3077,20 +3486,40 @@
       <c r="H9" s="7">
         <v>0.37446161119999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.43182048916666599</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.52503401986666598</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -3110,7 +3539,7 @@
         <v>0.23148372353333299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -3128,11 +3557,11 @@
         <v>0.36639534749999902</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3140,7 +3569,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="26" t="s">
         <v>11</v>
@@ -3148,7 +3577,7 @@
       <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3164,11 +3593,11 @@
         <v>2.40430780333333E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3182,11 +3611,11 @@
         <v>0.34162507253333302</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3199,8 +3628,11 @@
       <c r="H16" s="18">
         <v>0.52503401986666598</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -3219,8 +3651,15 @@
       <c r="H17" s="7">
         <v>1.6715801400000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="25">
+        <f>AVERAGE(H14:H25)</f>
+        <v>0.3539738257533328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -3237,12 +3676,19 @@
       <c r="H18" s="7">
         <v>0.309542047777777</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="25">
+        <f>MAX(H14:H25)</f>
+        <v>0.52503401986666598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3256,13 +3702,13 @@
         <v>0.51584331919999904</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3272,11 +3718,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3290,11 +3736,11 @@
         <v>0.39168062727777703</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3754,7 @@
         <v>0.52101366668888804</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -3322,7 +3768,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -3340,11 +3786,11 @@
         <v>0.382171420222222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3358,7 +3804,7 @@
         <v>0.51206920453333304</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="26" t="s">
         <v>16</v>
@@ -3366,7 +3812,7 @@
       <c r="C26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3382,11 +3828,11 @@
         <v>3.0238799244444399E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3400,19 +3846,28 @@
         <v>0.43182048916666599</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="8">
+        <v>199834</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.65224899999999997</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.49236783353333302</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3431,8 +3886,15 @@
       <c r="H29" s="7">
         <v>2.6918040000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="25">
+        <f>AVERAGE(H26:H37)</f>
+        <v>0.26149673424027747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -3440,43 +3902,68 @@
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="8">
+        <v>976648</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.41561685666666598</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="25">
+        <f>MAX(H26:H37)</f>
+        <v>0.49236783353333302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
+        <v>199712</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.65587899999999999</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.48951322964444399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="8">
+        <v>80104</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.89147100000000001</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.10656962742222199</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3975,7 @@
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3506,9 +3993,15 @@
       <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="8">
+        <v>78203</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.89147299999999996</v>
+      </c>
+      <c r="H35" s="7">
+        <v>9.8928998244444399E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
@@ -3523,10 +4016,10 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -3542,6 +4035,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -3558,12 +4057,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3694,13 +4187,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3721,9 +4214,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3741,9 +4234,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3758,9 +4251,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3777,9 +4270,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3794,9 +4287,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3811,11 +4304,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3832,9 +4325,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3849,9 +4342,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3866,9 +4359,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -3885,9 +4378,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3902,9 +4395,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3919,9 +4412,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -3938,9 +4431,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3955,11 +4448,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -3976,9 +4469,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3993,9 +4486,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4010,9 +4503,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4029,9 +4522,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4046,9 +4539,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4076,13 +4569,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4099,18 +4592,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4125,9 +4618,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4144,18 +4637,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4170,11 +4663,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4191,9 +4684,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4208,9 +4701,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4225,9 +4718,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4244,9 +4737,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4261,9 +4754,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4278,9 +4771,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -4297,9 +4790,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4314,11 +4807,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4335,9 +4828,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4352,9 +4845,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -4369,9 +4862,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4388,9 +4881,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -4405,9 +4898,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -4428,13 +4921,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4451,9 +4944,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -4468,9 +4961,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -4485,9 +4978,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4504,9 +4997,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -4521,9 +5014,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -4538,11 +5031,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -4559,9 +5052,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -4576,9 +5069,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -4593,9 +5086,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -4612,9 +5105,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -4629,9 +5122,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -4646,9 +5139,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -4665,9 +5158,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -4682,11 +5175,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4703,9 +5196,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -4720,9 +5213,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -4737,9 +5230,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -4748,18 +5241,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -4773,27 +5266,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -4806,6 +5278,27 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6898F-CEAA-4E55-BEC8-D172065FAE95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFFB42-4880-4E9D-A1C6-CD3B1252AC78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="5" r:id="rId1"/>
@@ -360,10 +360,23 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,19 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A952BD8-B220-41E5-A483-4F1EA60C8C1C}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -716,16 +716,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -742,9 +742,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -760,9 +760,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -784,10 +784,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -858,10 +858,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -870,12 +870,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -892,9 +892,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -910,9 +910,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -942,10 +942,10 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -966,14 +966,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -990,9 +990,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -1008,9 +1008,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -1029,10 +1029,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1050,10 +1050,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1069,10 +1069,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1081,12 +1081,12 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1103,9 +1103,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -1121,9 +1121,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -1139,10 +1139,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1153,10 +1153,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,10 +1165,10 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1177,12 +1177,12 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1199,10 +1199,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1217,14 +1217,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1244,9 +1244,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="31"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -1269,9 +1269,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="32"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
@@ -1294,10 +1294,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1308,10 +1308,10 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1332,12 +1332,12 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1354,9 +1354,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="31"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -1372,9 +1372,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="32"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
@@ -1390,10 +1390,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="26" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1404,10 +1404,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1435,6 +1435,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1451,14 +1459,6 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E925FDC9-2179-4AD2-AF88-E946D747B133}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,16 +1522,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1555,9 +1555,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1571,14 +1571,14 @@
       <c r="H3" s="7">
         <v>0.51527113586666595</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -1592,7 +1592,7 @@
       <c r="H4" s="18">
         <v>0.59682327546666603</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
@@ -1602,15 +1602,15 @@
         <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>7.2337368666666443E-2</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1646,15 +1646,15 @@
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
         <v>0.49562195778148094</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1688,15 +1688,15 @@
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.39658616498518479</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1709,17 +1709,17 @@
       <c r="H7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1741,14 +1741,14 @@
         <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>0.185732194766666</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1769,14 +1769,14 @@
         <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
         <v>0.54216390586666596</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -1797,15 +1797,15 @@
         <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.59682327546666603</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1822,10 +1822,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1840,10 +1840,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1858,14 +1858,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1882,9 +1882,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -1900,9 +1900,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -1916,15 +1916,15 @@
       <c r="H16" s="7">
         <v>0.59423277059999902</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1948,10 +1948,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +1973,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1991,12 +1991,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2013,9 +2013,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -2031,9 +2031,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -2049,10 +2049,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2069,10 +2069,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2105,14 +2105,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2129,9 +2129,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -2147,9 +2147,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
@@ -2163,15 +2163,15 @@
       <c r="H28" s="7">
         <v>0.59334346284444395</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2195,10 +2195,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2220,10 +2220,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2238,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2260,9 +2260,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -2278,9 +2278,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
@@ -2296,10 +2296,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2316,10 +2316,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2334,10 +2334,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2359,12 +2359,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2381,6 +2375,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2444,16 +2444,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2477,9 +2477,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -2487,14 +2487,14 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -2508,7 +2508,7 @@
       <c r="H4" s="7">
         <v>0.58266619024444399</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
@@ -2518,15 +2518,15 @@
         <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>6.4771732155555387E-2</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2556,15 +2556,15 @@
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
         <v>0.47838103710277724</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2592,32 +2592,32 @@
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.38986113590370347</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2639,14 +2639,14 @@
         <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>0.195720802366666</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -2661,14 +2661,14 @@
         <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
         <v>0.53181212173333303</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -2689,15 +2689,15 @@
         <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.58650722099999997</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2708,10 +2708,10 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2720,10 +2720,10 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2732,14 +2732,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2756,9 +2756,9 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -2774,9 +2774,9 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -2790,15 +2790,15 @@
       <c r="H16" s="7">
         <v>0.58516912626666595</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2816,10 +2816,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2835,10 +2835,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2847,12 +2847,12 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2869,9 +2869,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -2887,9 +2887,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -2905,10 +2905,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2919,10 +2919,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2931,10 +2931,10 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2943,14 +2943,14 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2967,9 +2967,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -2985,9 +2985,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
@@ -3001,15 +3001,15 @@
       <c r="H28" s="7">
         <v>0.58482427791111102</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3027,10 +3027,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3058,12 +3058,12 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3080,9 +3080,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -3098,9 +3098,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
@@ -3116,10 +3116,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -3130,10 +3130,10 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,10 +3142,10 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -3161,6 +3161,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -3173,16 +3183,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD5304F-4181-46C4-87D3-D97EFD8C5A53}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,16 +3245,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3278,9 +3278,9 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -3294,14 +3294,14 @@
       <c r="H3" s="7">
         <v>0.38860958899999998</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       <c r="H4" s="7">
         <v>0.49076971618888798</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
@@ -3325,16 +3325,16 @@
         <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>0.1028735917244443</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3361,24 +3361,24 @@
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.32201748269444402</v>
+        <v>0.33935412339722176</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.37813838577444386</v>
-      </c>
-      <c r="R5" s="35" t="s">
+        <v>0.38612154263055493</v>
+      </c>
+      <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3412,15 +3412,15 @@
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.50455772554861045</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3433,17 +3433,17 @@
       <c r="H7" s="7">
         <v>0.48985081473333297</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3465,14 +3465,14 @@
         <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
         <v>0.23540060032222199</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -3491,16 +3491,16 @@
       </c>
       <c r="Q9" s="25">
         <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.43182048916666599</v>
-      </c>
-      <c r="R9" s="35" t="s">
+        <v>0.43203538993333301</v>
+      </c>
+      <c r="R9" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -3515,15 +3515,15 @@
         <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
         <v>0.52503401986666598</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3540,10 +3540,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3558,10 +3558,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3570,14 +3570,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3594,9 +3594,9 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -3612,9 +3612,9 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -3628,15 +3628,15 @@
       <c r="H16" s="18">
         <v>0.52503401986666598</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3660,10 +3660,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3685,10 +3685,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3703,12 +3703,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3719,9 +3719,9 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -3737,9 +3737,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3769,10 +3769,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3787,10 +3787,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3805,14 +3805,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3829,9 +3829,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -3847,9 +3847,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
@@ -3863,15 +3863,15 @@
       <c r="H28" s="7">
         <v>0.49236783353333302</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3891,14 +3891,14 @@
       </c>
       <c r="K29" s="25">
         <f>AVERAGE(H26:H37)</f>
-        <v>0.26149673424027747</v>
+        <v>0.29440485277444411</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3920,10 +3920,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3938,12 +3938,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3960,21 +3960,27 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="8">
+        <v>340985</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.78384500000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.43203538993333301</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
@@ -3984,10 +3990,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4004,22 +4010,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="8">
+        <v>342429</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.78527100000000005</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.42003926388888801</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4035,12 +4047,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -4057,6 +4063,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4187,13 +4199,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4214,9 +4226,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4234,9 +4246,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4251,9 +4263,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4270,9 +4282,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4287,9 +4299,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4304,11 +4316,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4325,9 +4337,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4342,9 +4354,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4359,9 +4371,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4378,9 +4390,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4395,9 +4407,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4412,9 +4424,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4431,9 +4443,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4448,11 +4460,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4469,9 +4481,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4486,9 +4498,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4503,9 +4515,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4522,9 +4534,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4539,9 +4551,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4569,13 +4581,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4592,18 +4604,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4618,9 +4630,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4637,18 +4649,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4663,11 +4675,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4684,9 +4696,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4701,9 +4713,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4718,9 +4730,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4737,9 +4749,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4754,9 +4766,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4771,9 +4783,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -4790,9 +4802,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4807,11 +4819,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4828,9 +4840,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4845,9 +4857,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -4862,9 +4874,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4881,9 +4893,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -4898,9 +4910,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -4921,13 +4933,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="34" t="s">
+      <c r="B46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4944,9 +4956,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -4961,9 +4973,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -4978,9 +4990,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -4997,9 +5009,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5014,9 +5026,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5031,11 +5043,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5052,9 +5064,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5069,9 +5081,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5086,9 +5098,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5105,9 +5117,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5122,9 +5134,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5139,9 +5151,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5158,9 +5170,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5175,11 +5187,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5196,9 +5208,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5213,9 +5225,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5230,9 +5242,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5241,18 +5253,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -5266,6 +5278,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -5278,27 +5311,6 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFFB42-4880-4E9D-A1C6-CD3B1252AC78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D59E23-7BA5-4A1F-A09B-BE250B5895CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="5" r:id="rId1"/>
@@ -361,22 +361,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,6 +374,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,16 +716,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -742,10 +742,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -760,10 +760,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -784,10 +784,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -858,10 +858,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -870,12 +870,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -892,10 +892,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -942,10 +942,10 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -966,14 +966,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -990,10 +990,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1008,10 +1008,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1029,10 +1029,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1050,10 +1050,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1069,10 +1069,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1081,12 +1081,12 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1103,10 +1103,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1121,10 +1121,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1139,10 +1139,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1153,10 +1153,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,10 +1165,10 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1177,12 +1177,12 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1199,10 +1199,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1217,14 +1217,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1244,10 +1244,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1269,10 +1269,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1294,10 +1294,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1308,10 +1308,10 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1332,12 +1332,12 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1372,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1390,10 +1390,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1404,10 +1404,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1435,14 +1435,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1459,6 +1451,14 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,16 +1522,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1555,10 +1555,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,10 +1576,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1607,10 +1607,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1651,10 +1651,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1693,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1714,12 +1714,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1746,10 +1746,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1774,10 +1774,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1802,10 +1802,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1822,10 +1822,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1840,10 +1840,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1858,14 +1858,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1882,10 +1882,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1900,10 +1900,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1921,10 +1921,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1948,10 +1948,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +1973,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1991,12 +1991,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2013,10 +2013,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2031,10 +2031,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2049,10 +2049,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2069,10 +2069,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2105,14 +2105,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2129,10 +2129,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2147,10 +2147,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2168,10 +2168,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2195,10 +2195,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2220,10 +2220,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2238,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2260,10 +2260,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2278,10 +2278,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2296,10 +2296,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2316,10 +2316,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2334,10 +2334,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2359,6 +2359,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2375,12 +2381,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E51EA9-6C08-4C14-9E0B-CBABD31F3DFD}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="N1" s="25">
         <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
-        <v>0.32774610072916643</v>
+        <v>0.24822260482638867</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2477,10 +2477,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2492,10 +2492,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2516,61 +2516,73 @@
       </c>
       <c r="Q4" s="25">
         <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
-        <v>6.4771732155555387E-2</v>
+        <v>4.2867703945454444E-2</v>
       </c>
       <c r="R4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
-        <v>0.19126785529444423</v>
+        <v>0.18158807127444421</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.25241906886666637</v>
+        <v>0.22766083123492029</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.47838103710277724</v>
+        <v>0.31739805869259219</v>
       </c>
       <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="8">
+        <v>1349043</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.89046999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.128848677433333</v>
+      </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
@@ -2590,34 +2602,40 @@
       </c>
       <c r="Q6" s="25">
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.38986113590370347</v>
+        <v>0.38306860428777734</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="8">
+        <v>200103</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.65299399999999996</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.50263966426666595</v>
+      </c>
       <c r="M7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2644,10 +2662,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2666,10 +2684,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2694,52 +2712,70 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="8">
+        <v>327947</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="8">
+        <v>759247</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.82476099999999997</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.41932094986666602</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2756,10 +2792,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2774,10 +2810,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2795,37 +2831,49 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="8">
+        <v>901966</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="25">
         <f>AVERAGE(H14:H25)</f>
-        <v>0.37614082697777745</v>
+        <v>0.29365729867036999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="8">
+        <v>817594</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.90026200000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.0165679999999999E-3</v>
+      </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
@@ -2835,24 +2883,30 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="8">
+        <v>151891</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.64905299999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.51144791768888798</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2869,10 +2923,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2887,10 +2941,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2905,52 +2959,70 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="8">
+        <v>23875</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.89876299999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8.2914350466666606E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="8">
+        <v>427801</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.89119199999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.18823214052222201</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="8">
+        <v>101747</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.61879200000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.477431645499999</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2967,10 +3039,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2985,10 +3057,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3006,37 +3078,49 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="8">
+        <v>878286</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
       <c r="J29" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="25">
         <f>AVERAGE(H26:H37)</f>
-        <v>0.26990082895370349</v>
+        <v>0.22738062721527763</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="8">
+        <v>979265</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.88430299999999995</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.19964004399999999</v>
+      </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
@@ -3046,10 +3130,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3058,12 +3142,12 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3080,10 +3164,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3098,10 +3182,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3116,10 +3200,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -3130,10 +3214,10 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,10 +3226,10 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -3161,16 +3245,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -3183,6 +3257,16 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD5304F-4181-46C4-87D3-D97EFD8C5A53}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -3245,16 +3329,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3278,10 +3362,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3299,10 +3383,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3331,10 +3415,10 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3375,10 +3459,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3417,10 +3501,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3438,12 +3522,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3470,10 +3554,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3498,10 +3582,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3520,10 +3604,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3540,10 +3624,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3558,10 +3642,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3570,14 +3654,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3594,10 +3678,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3612,10 +3696,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3633,10 +3717,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3660,10 +3744,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3685,10 +3769,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3703,12 +3787,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3719,10 +3803,10 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3737,10 +3821,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3755,10 +3839,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3769,10 +3853,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3787,10 +3871,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3805,14 +3889,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3829,10 +3913,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3847,10 +3931,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3868,10 +3952,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3895,10 +3979,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3920,10 +4004,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3938,12 +4022,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3960,10 +4044,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3978,10 +4062,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3990,10 +4074,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4010,10 +4094,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4028,10 +4112,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4047,6 +4131,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -4063,12 +4153,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4199,13 +4283,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4226,9 +4310,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4246,9 +4330,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4263,9 +4347,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4282,9 +4366,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4299,9 +4383,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4316,11 +4400,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4337,9 +4421,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4354,9 +4438,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4371,9 +4455,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4390,9 +4474,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4407,9 +4491,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4424,9 +4508,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4443,9 +4527,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4460,11 +4544,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4481,9 +4565,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4498,9 +4582,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4515,9 +4599,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4534,9 +4618,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4551,9 +4635,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4581,13 +4665,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4604,18 +4688,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4630,9 +4714,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4649,18 +4733,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4675,11 +4759,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4696,9 +4780,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4713,9 +4797,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4730,9 +4814,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4749,9 +4833,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4766,9 +4850,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4783,9 +4867,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -4802,9 +4886,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4819,11 +4903,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4840,9 +4924,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4857,9 +4941,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -4874,9 +4958,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4893,9 +4977,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -4910,9 +4994,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -4933,13 +5017,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -4956,9 +5040,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -4973,9 +5057,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -4990,9 +5074,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5009,9 +5093,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5026,9 +5110,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5043,11 +5127,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5064,9 +5148,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5081,9 +5165,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5098,9 +5182,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5117,9 +5201,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5134,9 +5218,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5151,9 +5235,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5170,9 +5254,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5187,11 +5271,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5208,9 +5292,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5225,9 +5309,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5242,9 +5326,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5253,18 +5337,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -5278,27 +5362,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -5311,6 +5374,27 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D59E23-7BA5-4A1F-A09B-BE250B5895CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7563ADD-B777-4BA6-BBC1-0B9ABB3251AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -374,18 +386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,16 +716,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -742,10 +742,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -760,10 +760,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -784,10 +784,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -858,10 +858,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -870,12 +870,12 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -892,10 +892,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -942,10 +942,10 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,10 +954,10 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -966,14 +966,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -990,10 +990,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1008,10 +1008,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1029,10 +1029,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1050,10 +1050,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1069,10 +1069,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1081,12 +1081,12 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1103,10 +1103,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1121,10 +1121,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1139,10 +1139,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1153,10 +1153,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,10 +1165,10 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1177,12 +1177,12 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="35" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1199,10 +1199,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1217,14 +1217,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1244,10 +1244,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1269,10 +1269,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1294,10 +1294,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1308,10 +1308,10 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1332,12 +1332,12 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1372,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1390,10 +1390,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1404,10 +1404,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1435,6 +1435,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1451,14 +1459,6 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,16 +1522,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1555,10 +1555,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,10 +1576,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1607,10 +1607,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1651,10 +1651,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1693,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1714,12 +1714,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1746,10 +1746,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1774,10 +1774,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1802,10 +1802,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1822,10 +1822,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1840,10 +1840,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1858,14 +1858,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1882,10 +1882,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1900,10 +1900,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1921,10 +1921,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1948,10 +1948,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +1973,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1991,12 +1991,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2013,10 +2013,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2031,10 +2031,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2049,10 +2049,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2069,10 +2069,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2105,14 +2105,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2129,10 +2129,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2147,10 +2147,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2168,10 +2168,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2195,10 +2195,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2220,10 +2220,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2238,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2260,10 +2260,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2278,10 +2278,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2296,10 +2296,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2316,10 +2316,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2334,10 +2334,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2359,12 +2359,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2381,6 +2375,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2392,7 +2392,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="N1" s="25">
         <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
-        <v>0.24822260482638867</v>
+        <v>0.26357201595947688</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2477,10 +2477,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2492,10 +2492,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="Q4" s="25">
         <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
-        <v>4.2867703945454444E-2</v>
+        <v>3.9295395283333243E-2</v>
       </c>
       <c r="R4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2553,24 +2553,24 @@
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.22766083123492029</v>
+        <v>0.20706057032418271</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.31739805869259219</v>
+        <v>0.31893605864555519</v>
       </c>
       <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2602,17 +2602,17 @@
       </c>
       <c r="Q6" s="25">
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.38306860428777734</v>
+        <v>0.3616540530805552</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2630,12 +2630,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2662,10 +2662,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2684,10 +2684,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2712,10 +2712,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2732,10 +2732,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2750,10 +2750,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2768,14 +2768,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2792,10 +2792,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2810,10 +2810,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2831,10 +2831,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2858,10 +2858,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2883,10 +2883,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2901,12 +2901,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2941,10 +2941,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2959,10 +2959,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2979,10 +2979,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2997,10 +2997,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3015,14 +3015,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3039,10 +3039,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3057,10 +3057,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3078,10 +3078,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3101,14 +3101,14 @@
       </c>
       <c r="K29" s="25">
         <f>AVERAGE(H26:H37)</f>
-        <v>0.22738062721527763</v>
+        <v>0.22174880583611098</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3130,24 +3130,30 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="8">
+        <v>199605</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.65750399999999998</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.50916259408888898</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3164,10 +3170,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3182,10 +3188,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3200,42 +3206,60 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="8">
+        <v>78203</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="8">
+        <v>342209</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.85352099999999997</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.33277805822222201</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H38" s="17">
@@ -3245,6 +3269,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -3257,16 +3291,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3329,16 +3353,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3362,10 +3386,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3383,10 +3407,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3415,10 +3439,10 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3459,10 +3483,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3501,10 +3525,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3522,12 +3546,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3554,10 +3578,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3582,10 +3606,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3604,10 +3628,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3624,10 +3648,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3642,10 +3666,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3654,14 +3678,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3678,10 +3702,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,10 +3720,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3717,10 +3741,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3744,10 +3768,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3769,10 +3793,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3787,12 +3811,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3803,10 +3827,10 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3821,10 +3845,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3839,10 +3863,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3853,10 +3877,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3871,10 +3895,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3889,14 +3913,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3913,10 +3937,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3931,10 +3955,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3952,10 +3976,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3979,10 +4003,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -4004,10 +4028,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -4022,12 +4046,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4044,10 +4068,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -4062,10 +4086,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -4074,10 +4098,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4094,10 +4118,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4112,10 +4136,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4131,12 +4155,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -4153,6 +4171,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4283,13 +4307,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4310,9 +4334,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4330,9 +4354,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4347,9 +4371,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4366,9 +4390,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4383,9 +4407,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4400,11 +4424,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4421,9 +4445,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4438,9 +4462,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4455,9 +4479,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4474,9 +4498,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4491,9 +4515,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4508,9 +4532,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4527,9 +4551,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4544,11 +4568,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4565,9 +4589,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4582,9 +4606,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4599,9 +4623,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4618,9 +4642,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4635,9 +4659,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4665,13 +4689,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4688,18 +4712,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4714,9 +4738,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4733,18 +4757,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4759,11 +4783,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4780,9 +4804,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4797,9 +4821,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4814,9 +4838,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4833,9 +4857,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4850,9 +4874,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4867,9 +4891,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -4886,9 +4910,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4903,11 +4927,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4924,9 +4948,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4941,9 +4965,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -4958,9 +4982,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -4977,9 +5001,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -4994,9 +5018,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -5017,13 +5041,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -5040,9 +5064,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -5057,9 +5081,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -5074,9 +5098,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5093,9 +5117,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5110,9 +5134,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5127,11 +5151,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5148,9 +5172,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5165,9 +5189,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5182,9 +5206,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5201,9 +5225,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5218,9 +5242,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5235,9 +5259,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5254,9 +5278,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5271,11 +5295,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5292,9 +5316,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5309,9 +5333,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5326,9 +5350,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5337,18 +5361,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -5362,6 +5386,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -5374,27 +5419,6 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7563ADD-B777-4BA6-BBC1-0B9ABB3251AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFDAA1-5042-43C6-BACC-A01D29E05CA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="5" r:id="rId1"/>
@@ -361,22 +361,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,6 +374,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A952BD8-B220-41E5-A483-4F1EA60C8C1C}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,21 +711,21 @@
       <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -742,10 +742,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -760,10 +760,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -776,62 +776,74 @@
       <c r="H4" s="7">
         <v>0.58937439244444401</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="J4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
-        <v>0.32433554681111082</v>
+        <v>0.27431743417373711</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.29283862106049363</v>
+        <v>0.2805129567124181</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.4661513169142853</v>
-      </c>
-      <c r="R5" t="s">
+        <v>0.42471103226363593</v>
+      </c>
+      <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="8">
+        <v>1350854</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.80464199999999997</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.44194265489999901</v>
+      </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
@@ -851,31 +863,37 @@
       </c>
       <c r="Q6" s="25">
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.3067435007444444</v>
-      </c>
-      <c r="R6" t="s">
+        <v>0.28373099285648129</v>
+      </c>
+      <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="8">
+        <v>200171</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.64418799999999998</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.50267810234444399</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -892,10 +910,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -910,10 +928,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -928,24 +946,30 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="8">
+        <v>327947</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.88733700000000004</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.12685773780000001</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -954,26 +978,32 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -990,10 +1020,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1008,10 +1038,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1024,42 +1054,54 @@
       <c r="H16" s="7">
         <v>0.5917285269</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="8">
+        <v>901966</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.90067600000000003</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4.1052257277777698E-2</v>
+      </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="25">
         <f>AVERAGE(H14:H25)</f>
-        <v>0.39955070072777749</v>
+        <v>0.33905718992499967</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="8">
+        <v>807345</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.89599399999999996</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.1573677866666602E-2</v>
+      </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
@@ -1069,24 +1111,30 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="8">
+        <v>151299</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.68991199999999997</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.519436285677777</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1103,10 +1151,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1121,10 +1169,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1139,50 +1187,68 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="8">
+        <v>23870</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.89214099999999996</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.122056740711111</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="8">
+        <v>431957</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.82624399999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.39875058616666598</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="8">
+        <v>101441</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.69824600000000003</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.51851252703333295</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1199,10 +1265,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1217,14 +1283,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1239,15 +1305,15 @@
       <c r="H28" s="7">
         <v>1.4617743311111099E-2</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1265,14 +1331,14 @@
       </c>
       <c r="K29" s="25">
         <f>AVERAGE(H26:H37)</f>
-        <v>0.31573548104166654</v>
+        <v>0.29150892941574053</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1294,50 +1360,68 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="8">
+        <v>878286</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.90021700000000004</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5.2282218000000002E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="8">
+        <v>977415</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.78439700000000001</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.45204409233333298</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="8">
+        <v>200235</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.63441800000000004</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.49649521756666598</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1354,10 +1438,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1456,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1390,42 +1474,60 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="8">
+        <v>78203</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.90018299999999996</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.8455772955555502E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="8">
+        <v>340699</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.82196499999999995</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.423947885399999</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="8">
+        <v>10</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H40" s="17">
@@ -1435,14 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1459,6 +1553,14 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,16 +1624,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1555,10 +1657,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,10 +1678,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1607,10 +1709,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1651,10 +1753,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1795,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1714,12 +1816,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1746,10 +1848,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1774,10 +1876,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1802,10 +1904,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1822,10 +1924,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1840,10 +1942,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1858,14 +1960,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1882,10 +1984,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1900,10 +2002,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1921,10 +2023,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1948,10 +2050,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +2075,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1991,12 +2093,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2013,10 +2115,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2031,10 +2133,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2049,10 +2151,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2069,10 +2171,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2087,10 +2189,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2105,14 +2207,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2129,10 +2231,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2147,10 +2249,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2168,10 +2270,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2195,10 +2297,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2220,10 +2322,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2340,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2260,10 +2362,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2278,10 +2380,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2296,10 +2398,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2316,10 +2418,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2334,10 +2436,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2359,6 +2461,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2375,12 +2483,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2391,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E51EA9-6C08-4C14-9E0B-CBABD31F3DFD}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -2444,16 +2546,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2477,10 +2579,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2492,10 +2594,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2523,10 +2625,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2567,10 +2669,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2609,10 +2711,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2630,12 +2732,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2662,10 +2764,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2684,10 +2786,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2712,10 +2814,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2732,10 +2834,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2750,10 +2852,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2768,14 +2870,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2792,10 +2894,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2810,10 +2912,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2831,10 +2933,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2858,10 +2960,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2883,10 +2985,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2901,12 +3003,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2923,10 +3025,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2941,10 +3043,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2959,10 +3061,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2979,10 +3081,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2997,10 +3099,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3015,14 +3117,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3039,10 +3141,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3057,10 +3159,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3078,10 +3180,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3105,10 +3207,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3130,10 +3232,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3148,12 +3250,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3170,10 +3272,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3188,10 +3290,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3206,10 +3308,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -3226,10 +3328,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -3244,10 +3346,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -3269,16 +3371,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -3291,6 +3383,16 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3300,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD5304F-4181-46C4-87D3-D97EFD8C5A53}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -3353,16 +3455,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3386,10 +3488,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3407,10 +3509,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3439,10 +3541,10 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3483,10 +3585,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3525,10 +3627,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3546,12 +3648,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3578,10 +3680,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3606,10 +3708,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3628,10 +3730,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3648,10 +3750,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3666,10 +3768,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3678,14 +3780,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3702,10 +3804,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3720,10 +3822,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3741,10 +3843,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3768,10 +3870,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3793,10 +3895,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3811,12 +3913,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3827,10 +3929,10 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3845,10 +3947,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3863,10 +3965,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3877,10 +3979,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3895,10 +3997,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3913,14 +4015,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3937,10 +4039,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3955,10 +4057,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3976,10 +4078,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4003,10 +4105,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -4028,10 +4130,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -4046,12 +4148,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4068,10 +4170,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -4086,10 +4188,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -4098,10 +4200,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4118,10 +4220,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4136,10 +4238,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4155,6 +4257,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -4171,12 +4279,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4307,13 +4409,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4334,9 +4436,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4354,9 +4456,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4371,9 +4473,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4390,9 +4492,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4407,9 +4509,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4424,11 +4526,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4445,9 +4547,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4462,9 +4564,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4479,9 +4581,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4498,9 +4600,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4515,9 +4617,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4532,9 +4634,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4551,9 +4653,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4568,11 +4670,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4589,9 +4691,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4606,9 +4708,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4623,9 +4725,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4642,9 +4744,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4659,9 +4761,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4689,13 +4791,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4712,18 +4814,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4738,9 +4840,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4757,18 +4859,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4783,11 +4885,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4804,9 +4906,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4821,9 +4923,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4838,9 +4940,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4857,9 +4959,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4874,9 +4976,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4891,9 +4993,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -4910,9 +5012,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4927,11 +5029,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4948,9 +5050,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4965,9 +5067,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -4982,9 +5084,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5001,9 +5103,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -5018,9 +5120,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -5041,13 +5143,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -5064,9 +5166,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -5081,9 +5183,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -5098,9 +5200,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5117,9 +5219,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5134,9 +5236,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5151,11 +5253,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5172,9 +5274,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5189,9 +5291,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5206,9 +5308,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5225,9 +5327,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5242,9 +5344,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5259,9 +5361,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5278,9 +5380,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5295,11 +5397,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5316,9 +5418,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5333,9 +5435,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5350,9 +5452,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5361,18 +5463,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -5386,27 +5488,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -5419,6 +5500,27 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFDAA1-5042-43C6-BACC-A01D29E05CA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF6FF38-92DA-4416-8AAE-4E01354A3C87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -361,10 +369,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -376,17 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A952BD8-B220-41E5-A483-4F1EA60C8C1C}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,16 +727,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -742,10 +753,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -760,10 +771,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -784,10 +795,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -807,31 +818,31 @@
       </c>
       <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
-        <v>0.27431743417373711</v>
+        <v>0.28794553257037009</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.2805129567124181</v>
+        <v>0.28925415994691339</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.42471103226363593</v>
+        <v>0.42580633081944397</v>
       </c>
       <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -870,10 +881,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -888,12 +899,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -910,10 +921,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -928,10 +939,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -946,10 +957,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -966,22 +977,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="8">
+        <v>758771</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.80744499999999997</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.437854614933333</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -996,14 +1013,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1020,10 +1037,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1038,10 +1055,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1059,10 +1076,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1086,10 +1103,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1111,10 +1128,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1129,12 +1146,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1151,10 +1168,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1169,10 +1186,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1182,15 +1199,15 @@
       <c r="G22" s="7">
         <v>0.73615699999999995</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="36">
         <v>0.59292380700000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1207,10 +1224,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1225,10 +1242,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1243,12 +1260,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="35" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1265,10 +1282,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1283,14 +1300,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1310,10 +1327,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1335,10 +1352,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1360,10 +1377,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1380,10 +1397,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1398,10 +1415,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1416,12 +1433,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1438,10 +1455,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1456,10 +1473,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1474,10 +1491,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1494,10 +1511,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1512,10 +1529,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1537,6 +1554,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B14:B27"/>
     <mergeCell ref="A2:A39"/>
@@ -1553,14 +1578,6 @@
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1571,7 +1588,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,16 +1641,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1657,10 +1674,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1678,10 +1695,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1708,7 @@
       <c r="G4" s="7">
         <v>0.73791799999999996</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="36">
         <v>0.59682327546666603</v>
       </c>
       <c r="J4" s="26" t="s">
@@ -1709,10 +1726,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1753,10 +1770,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1795,10 +1812,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1816,12 +1833,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1848,10 +1865,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1876,10 +1893,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1904,10 +1921,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1924,10 +1941,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1942,10 +1959,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1960,14 +1977,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1984,10 +2001,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2002,10 +2019,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2023,10 +2040,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2050,10 +2067,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2075,10 +2092,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2093,12 +2110,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2115,10 +2132,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2133,10 +2150,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2151,10 +2168,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2171,10 +2188,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2189,10 +2206,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2207,14 +2224,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2231,10 +2248,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2249,10 +2266,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2270,10 +2287,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2297,10 +2314,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2322,10 +2339,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2340,12 +2357,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2362,10 +2379,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2380,10 +2397,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2398,10 +2415,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2418,10 +2435,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2436,10 +2453,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2461,12 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -2483,6 +2494,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2494,7 +2511,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,20 +2559,20 @@
       </c>
       <c r="N1" s="25">
         <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
-        <v>0.26357201595947688</v>
+        <v>0.27836953391728375</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2579,25 +2596,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="6">
+        <v>1350214</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.81865399999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.52992733920000001</v>
+      </c>
       <c r="M3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2625,10 +2648,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2648,31 +2671,31 @@
       </c>
       <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
-        <v>0.18158807127444421</v>
+        <v>0.23886545415555535</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.20706057032418271</v>
+        <v>0.22447817185740712</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="25">
         <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.31893605864555519</v>
+        <v>0.35332211029814786</v>
       </c>
       <c r="R5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2711,10 +2734,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2732,12 +2755,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2764,16 +2787,22 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="8">
+        <v>754464</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.82074599999999998</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.52057739792222202</v>
+      </c>
       <c r="P9" t="s">
         <v>24</v>
       </c>
@@ -2786,10 +2815,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2814,10 +2843,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2834,10 +2863,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -2852,10 +2881,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2870,14 +2899,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2894,10 +2923,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2912,10 +2941,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2933,10 +2962,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2960,10 +2989,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2985,10 +3014,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3003,12 +3032,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3025,10 +3054,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3043,10 +3072,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3056,15 +3085,15 @@
       <c r="G22" s="7">
         <v>0.73922699999999997</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="36">
         <v>0.58650722099999997</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3081,10 +3110,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3099,10 +3128,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3117,14 +3146,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3141,10 +3170,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3159,10 +3188,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -3180,10 +3209,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3207,10 +3236,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3232,10 +3261,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -3250,12 +3279,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3272,10 +3301,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3290,10 +3319,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3308,10 +3337,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -3328,10 +3357,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -3346,10 +3375,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -3371,6 +3400,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="D35:D37"/>
@@ -3383,16 +3422,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3403,7 +3432,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,16 +3484,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3488,10 +3517,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3509,10 +3538,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3541,10 +3570,10 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3585,10 +3614,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3627,10 +3656,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3648,12 +3677,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3680,10 +3709,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3708,10 +3737,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3730,10 +3759,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3750,10 +3779,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3768,10 +3797,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3780,14 +3809,14 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3804,10 +3833,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3822,10 +3851,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3864,7 @@
       <c r="G16" s="7">
         <v>0.63477099999999997</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="36">
         <v>0.52503401986666598</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -3843,10 +3872,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3870,10 +3899,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3895,10 +3924,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3913,12 +3942,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3929,10 +3958,10 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3947,10 +3976,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3965,10 +3994,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3979,10 +4008,10 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3997,10 +4026,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -4015,14 +4044,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4039,10 +4068,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -4057,10 +4086,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -4078,10 +4107,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4105,10 +4134,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -4130,10 +4159,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -4148,12 +4177,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4170,10 +4199,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -4188,10 +4217,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -4200,10 +4229,10 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4220,10 +4249,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4238,10 +4267,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -4257,12 +4286,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -4279,6 +4302,12 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4409,13 +4438,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4436,9 +4465,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4456,9 +4485,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4473,9 +4502,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4492,9 +4521,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4509,9 +4538,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4526,11 +4555,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4547,9 +4576,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4564,9 +4593,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4581,9 +4610,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4600,9 +4629,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4617,9 +4646,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4634,9 +4663,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4653,9 +4682,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4670,11 +4699,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4691,9 +4720,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4708,9 +4737,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4725,9 +4754,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4744,9 +4773,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4761,9 +4790,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4791,13 +4820,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4814,18 +4843,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4840,9 +4869,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4859,18 +4888,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4885,11 +4914,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4906,9 +4935,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4923,9 +4952,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4940,9 +4969,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4959,9 +4988,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4976,9 +5005,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4993,9 +5022,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -5012,9 +5041,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -5029,11 +5058,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -5050,9 +5079,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -5067,9 +5096,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -5084,9 +5113,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5103,9 +5132,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -5120,9 +5149,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -5143,13 +5172,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -5166,9 +5195,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -5183,9 +5212,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -5200,9 +5229,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5219,9 +5248,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5236,9 +5265,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5253,11 +5282,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5274,9 +5303,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5291,9 +5320,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5308,9 +5337,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5327,9 +5356,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5344,9 +5373,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5361,9 +5390,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5380,9 +5409,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5397,11 +5426,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5418,9 +5447,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5435,9 +5464,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5452,9 +5481,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5463,18 +5492,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
@@ -5488,6 +5517,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="A46:A65"/>
@@ -5500,27 +5550,6 @@
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD-II/analytics/results/results.xlsx
+++ b/BD-II/analytics/results/results.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF6FF38-92DA-4416-8AAE-4E01354A3C87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB02F0-5497-4E00-A323-583EF149612B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DT" sheetId="5" r:id="rId1"/>
-    <sheet name="PCARD" sheetId="4" r:id="rId2"/>
-    <sheet name="RF" sheetId="2" r:id="rId3"/>
+    <sheet name="RF" sheetId="2" r:id="rId2"/>
+    <sheet name="PCARD" sheetId="4" r:id="rId3"/>
     <sheet name="KNN" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="28">
   <si>
     <t>Algorithm</t>
   </si>
@@ -103,6 +103,12 @@
   <si>
     <t>Noise filtering</t>
   </si>
+  <si>
+    <t>FALLA EN TODOS LOS QUE DEJE 10 INSTANCIAS, quizás por el K</t>
+  </si>
+  <si>
+    <t>Con 150 árboles</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -369,6 +381,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A952BD8-B220-41E5-A483-4F1EA60C8C1C}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,18 +743,25 @@
       <c r="J1" s="26" t="s">
         <v>25</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="25">
+        <f>AVERAGE(H2:H7,H14:H19,H28:H33)</f>
+        <v>0.33266866002283924</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -751,12 +776,19 @@
       <c r="H2" s="11">
         <v>0</v>
       </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="25">
+        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.5917285269</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -769,12 +801,15 @@
       <c r="H3" s="7">
         <v>0.57825921628888799</v>
       </c>
+      <c r="M3" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -793,12 +828,22 @@
       <c r="M4" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H28,H31,H34,H37)</f>
+        <v>6.5550827094444389E-2</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -839,10 +884,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -881,10 +926,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -899,12 +944,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -919,12 +964,22 @@
       <c r="H8" s="7">
         <v>0.215382743122222</v>
       </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H28,H31,H34,H37)</f>
+        <v>0.215382743122222</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -937,12 +992,22 @@
       <c r="H9" s="7">
         <v>0.56299692901111098</v>
       </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" ref="Q9:Q10" si="0">MAX(H3,H6,H9,H12,H15,H18,H21,H24,H29,H32,H35,H38)</f>
+        <v>0.57825921628888799</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -955,12 +1020,22 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.59292380700000002</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -977,10 +1052,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -995,10 +1070,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1013,14 +1088,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1037,10 +1112,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1055,10 +1130,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1075,11 +1150,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1102,11 +1177,11 @@
         <v>0.33905718992499967</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1127,11 +1202,11 @@
         <v>0.59292380700000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1145,13 +1220,13 @@
         <v>0.519436285677777</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1167,11 +1242,11 @@
         <v>0.14205408913333301</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1185,11 +1260,11 @@
         <v>0.51963619616666601</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1199,15 +1274,24 @@
       <c r="G22" s="7">
         <v>0.73615699999999995</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="27">
         <v>0.59292380700000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="J22" s="8">
+        <v>105692</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.73341400000000001</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0.60550395359999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1223,11 +1307,11 @@
         <v>0.122056740711111</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1241,11 +1325,11 @@
         <v>0.39875058616666598</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1259,13 +1343,13 @@
         <v>0.51851252703333295</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1281,11 +1365,11 @@
         <v>0.26026294760000002</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1299,15 +1383,15 @@
         <v>0.51580542577777699</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1326,11 +1410,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="31"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1351,11 +1435,11 @@
         <v>0.29150892941574053</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
@@ -1376,11 +1460,11 @@
         <v>0.58448795019999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1396,11 +1480,11 @@
         <v>5.2282218000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1415,10 +1499,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
@@ -1433,12 +1517,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1455,10 +1539,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1473,10 +1557,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
@@ -1491,10 +1575,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1511,10 +1595,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1529,10 +1613,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
@@ -1584,11 +1668,944 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E51EA9-6C08-4C14-9E0B-CBABD31F3DFD}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="25">
+        <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.27836953391728375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="25">
+        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
+        <v>0.58516912626666595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1350214</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.81865399999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.52992733920000001</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8">
+        <v>199746</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.73559300000000005</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.58266619024444399</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>3.9295395283333243E-2</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="25">
+        <f>AVERAGE(H2:H13)</f>
+        <v>0.23886545415555535</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="25">
+        <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.22447817185740712</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.35332211029814786</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1349043</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.89046999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.128848677433333</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="25">
+        <f>MAX(H2:H13)</f>
+        <v>0.58266619024444399</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="25">
+        <f>MAX(H8:H13,H20:H25,H32:H37)</f>
+        <v>0.58650722099999997</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.3616540530805552</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8">
+        <v>200103</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.65299399999999996</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.50263966426666595</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>327863</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.89351899999999995</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.182405230933333</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="25">
+        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
+        <v>0.195720802366666</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8">
+        <v>754464</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.82074599999999998</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.52057739792222202</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
+        <v>0.53181212173333303</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
+        <v>0.58650722099999997</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>327947</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>759247</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.82476099999999997</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.41932094986666602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>903094</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.90056800000000004</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.05043596333333E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
+        <v>813512</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.87106099999999997</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.34713133086666598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8">
+        <v>158309</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.731209</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.58516912626666595</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>901966</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="25">
+        <f>AVERAGE(H14:H25)</f>
+        <v>0.29365729867036999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8">
+        <v>817594</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.90026200000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.0165679999999999E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="25">
+        <f>MAX(H14:H25)</f>
+        <v>0.58650722099999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="8">
+        <v>151891</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.64905299999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.51144791768888798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
+        <v>30577</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.89463400000000004</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.195720802366666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8">
+        <v>451715</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.81704299999999996</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.53181212173333303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="8">
+        <v>105913</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.73922699999999997</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0.58650722099999997</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="8">
+        <v>106414</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.74633400000000005</v>
+      </c>
+      <c r="N22" s="27">
+        <v>0.60740317742222205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>23875</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.89876299999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8.2914350466666606E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8">
+        <v>427801</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.89119199999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.18823214052222201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="8">
+        <v>101747</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.61879200000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.477431645499999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8">
+        <v>878496</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8">
+        <v>981334</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.83141299999999996</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.51167352091111096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="8">
+        <v>199074</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.72549699999999995</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.58482427791111102</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <v>878286</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="25">
+        <f>AVERAGE(H26:H37)</f>
+        <v>0.22174880583611098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8">
+        <v>979265</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.88430299999999995</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.19964004399999999</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="25">
+        <f>MAX(H26:H37)</f>
+        <v>0.58482427791111102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="8">
+        <v>199605</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.65750399999999998</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.50916259408888898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
+        <v>80104</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8">
+        <v>340931</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.82437000000000005</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.52290717489999905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8">
+        <v>78203</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8">
+        <v>342209</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.85352099999999997</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.33277805822222201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="17">
+        <f>MAX(H2:H37)</f>
+        <v>0.58650722099999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E925FDC9-2179-4AD2-AF88-E946D747B133}">
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,16 +2658,16 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1674,10 +2691,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1695,10 +2712,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +2725,7 @@
       <c r="G4" s="7">
         <v>0.73791799999999996</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="27">
         <v>0.59682327546666603</v>
       </c>
       <c r="J4" s="26" t="s">
@@ -1726,10 +2743,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1770,10 +2787,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1812,10 +2829,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1833,12 +2850,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1865,10 +2882,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1893,10 +2910,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1921,10 +2938,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1941,10 +2958,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1959,10 +2976,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1977,14 +2994,14 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2001,10 +3018,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2019,10 +3036,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2039,11 +3056,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2066,11 +3083,11 @@
         <v>0.36907940788703675</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2091,11 +3108,11 @@
         <v>0.59511748099999995</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2109,13 +3126,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2131,11 +3148,11 @@
         <v>0.123972242355555</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2149,11 +3166,11 @@
         <v>0.50682671820000003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2166,12 +3183,21 @@
       <c r="H22" s="7">
         <v>0.59511748099999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="J22" s="8">
+        <v>199589</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.73567899999999997</v>
+      </c>
+      <c r="L22" s="27">
+        <v>0.59766280166666597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2187,11 +3213,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2205,11 +3231,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2223,15 +3249,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -2247,11 +3273,11 @@
         <v>1.23994213333333E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2265,11 +3291,11 @@
         <v>0.54216390586666596</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2286,11 +3312,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2313,11 +3339,11 @@
         <v>0.28632055298148118</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2338,11 +3364,11 @@
         <v>0.59334346284444395</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2356,13 +3382,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2379,10 +3405,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2397,10 +3423,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2415,10 +3441,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2435,10 +3461,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -2453,10 +3479,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2506,933 +3532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E51EA9-6C08-4C14-9E0B-CBABD31F3DFD}">
-  <dimension ref="A1:R38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="25">
-        <f>AVERAGE(H2:H7,H14:H19,H26:H31)</f>
-        <v>0.27836953391728375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="21">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="25">
-        <f>MAX(H2:H7,H14:H19,H26:H31)</f>
-        <v>0.58516912626666595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1350214</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.81865399999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.52992733920000001</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8">
-        <v>199746</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.73559300000000005</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.58266619024444399</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="25">
-        <f>AVERAGE(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
-        <v>3.9295395283333243E-2</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="25">
-        <f>AVERAGE(H2:H13)</f>
-        <v>0.23886545415555535</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="25">
-        <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.22447817185740712</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="25">
-        <f>AVERAGE(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.35332211029814786</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1349043</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.89046999999999998</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.128848677433333</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="25">
-        <f>MAX(H2:H13)</f>
-        <v>0.58266619024444399</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="25">
-        <f>MAX(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.58650722099999997</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="25">
-        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.3616540530805552</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8">
-        <v>200103</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.65299399999999996</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.50263966426666595</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8">
-        <v>327863</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.89351899999999995</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.182405230933333</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="25">
-        <f>MAX(H2,H5,H8,H11,H14,H17,H20,H23,H26,H29,H32,H35)</f>
-        <v>0.195720802366666</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8">
-        <v>754464</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.82074599999999998</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.52057739792222202</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="25">
-        <f>MAX(H3,H6,H9,H12,H15,H18,H21,H24,H27,H30,H33,H36)</f>
-        <v>0.53181212173333303</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="25">
-        <f>MAX(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.58650722099999997</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="8">
-        <v>327947</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8">
-        <v>759247</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.82476099999999997</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.41932094986666602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8">
-        <v>903094</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.90056800000000004</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.05043596333333E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8">
-        <v>813512</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.87106099999999997</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.34713133086666598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="8">
-        <v>158309</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.731209</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.58516912626666595</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8">
-        <v>901966</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="25">
-        <f>AVERAGE(H14:H25)</f>
-        <v>0.29365729867036999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8">
-        <v>817594</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.90026200000000001</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7.0165679999999999E-3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="25">
-        <f>MAX(H14:H25)</f>
-        <v>0.58650722099999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="8">
-        <v>151891</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.64905299999999999</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.51144791768888798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8">
-        <v>30577</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.89463400000000004</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.195720802366666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8">
-        <v>451715</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.81704299999999996</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.53181212173333303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="8">
-        <v>105913</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.73922699999999997</v>
-      </c>
-      <c r="H22" s="36">
-        <v>0.58650722099999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8">
-        <v>23875</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.89876299999999998</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8.2914350466666606E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="8">
-        <v>427801</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.89119199999999998</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.18823214052222201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="8">
-        <v>101747</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.61879200000000001</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.477431645499999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="8">
-        <v>878496</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="8">
-        <v>981334</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.83141299999999996</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.51167352091111096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="8">
-        <v>199074</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.72549699999999995</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.58482427791111102</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8">
-        <v>878286</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="25">
-        <f>AVERAGE(H26:H37)</f>
-        <v>0.22174880583611098</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="8">
-        <v>979265</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.88430299999999995</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0.19964004399999999</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="25">
-        <f>MAX(H26:H37)</f>
-        <v>0.58482427791111102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="8">
-        <v>199605</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.65750399999999998</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0.50916259408888898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="8">
-        <v>80104</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="8">
-        <v>340931</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.82437000000000005</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0.52290717489999905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="8">
-        <v>10</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="8">
-        <v>78203</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8">
-        <v>342209</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0.85352099999999997</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0.33277805822222201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="8">
-        <v>10</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="17">
-        <f>MAX(H2:H37)</f>
-        <v>0.58650722099999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D5:D7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD5304F-4181-46C4-87D3-D97EFD8C5A53}">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,16 +3589,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3517,10 +3622,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3538,10 +3643,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3570,10 +3675,10 @@
       <c r="S4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3593,14 +3698,14 @@
       </c>
       <c r="K5" s="25">
         <f>AVERAGE(H2:H13)</f>
-        <v>0.32148694479222184</v>
+        <v>0.29226085890201986</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25">
         <f>AVERAGE(H8:H13,H20:H25,H32:H37)</f>
-        <v>0.33935412339722176</v>
+        <v>0.31324996005897393</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -3614,10 +3719,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3649,17 +3754,17 @@
       </c>
       <c r="Q6" s="25">
         <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37)</f>
-        <v>0.50455772554861045</v>
+        <v>0.44849575604320929</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3677,12 +3782,12 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3709,10 +3814,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3737,16 +3842,18 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="P10" t="s">
         <v>24</v>
       </c>
@@ -3759,10 +3866,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3779,10 +3886,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3797,26 +3904,32 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3833,10 +3946,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3851,31 +3964,40 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="8">
-        <v>158009</v>
+        <v>0.63270400000000004</v>
       </c>
       <c r="G16" s="7">
         <v>0.63477099999999997</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="27">
         <v>0.52503401986666598</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28" t="s">
+      <c r="N16" s="8">
+        <v>157733</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.63270400000000004</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0.52644306733333301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3898,11 +4020,11 @@
         <v>0.3539738257533328</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3923,11 +4045,11 @@
         <v>0.52503401986666598</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3941,27 +4063,27 @@
         <v>0.51584331919999904</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3975,11 +4097,11 @@
         <v>0.39168062727777703</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
@@ -3992,26 +4114,29 @@
       <c r="H22" s="7">
         <v>0.52101366668888804</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28" t="s">
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4025,11 +4150,11 @@
         <v>0.382171420222222</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
@@ -4043,15 +4168,15 @@
         <v>0.51206920453333304</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4067,11 +4192,11 @@
         <v>3.0238799244444399E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -4085,11 +4210,11 @@
         <v>0.43182048916666599</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
@@ -4106,11 +4231,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4133,11 +4258,11 @@
         <v>0.29440485277444411</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
@@ -4158,11 +4283,11 @@
         <v>0.49236783353333302</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
@@ -4176,13 +4301,13 @@
         <v>0.48951322964444399</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4199,10 +4324,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
@@ -4217,22 +4342,24 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4249,10 +4376,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4267,16 +4394,18 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H38" s="17">
@@ -4438,13 +4567,13 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4465,9 +4594,9 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4485,9 +4614,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -4502,9 +4631,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4521,9 +4650,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,9 +4667,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4555,11 +4684,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4576,9 +4705,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
@@ -4593,9 +4722,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -4610,9 +4739,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4629,9 +4758,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
@@ -4646,9 +4775,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -4663,9 +4792,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4682,9 +4811,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4699,11 +4828,11 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4720,9 +4849,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4737,9 +4866,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4754,9 +4883,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -4773,9 +4902,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
@@ -4790,9 +4919,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
@@ -4820,13 +4949,13 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -4843,18 +4972,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4869,9 +4998,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -4888,18 +5017,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
@@ -4914,11 +5043,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4935,9 +5064,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4952,9 +5081,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -4969,9 +5098,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -4988,9 +5117,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
@@ -5005,9 +5134,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
@@ -5022,9 +5151,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -5041,9 +5170,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
@@ -5058,11 +5187,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -5079,9 +5208,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
@@ -5096,9 +5225,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="5" t="s">
         <v>13</v>
       </c>
@@ -5113,9 +5242,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -5132,9 +5261,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
@@ -5149,9 +5278,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
@@ -5172,13 +5301,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -5195,9 +5324,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
@@ -5212,9 +5341,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="5" t="s">
         <v>13</v>
       </c>
@@ -5229,9 +5358,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5248,9 +5377,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
@@ -5265,9 +5394,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
@@ -5282,11 +5411,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -5303,9 +5432,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5320,9 +5449,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5337,9 +5466,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -5356,9 +5485,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5373,9 +5502,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -5390,9 +5519,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -5409,9 +5538,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
@@ -5426,11 +5555,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5447,9 +5576,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5464,9 +5593,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -5481,9 +5610,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5"/>
@@ -5492,18 +5621,18 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="5"/>
       <c r="F64" s="8"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="5"/>
       <c r="F65" s="8"/>
       <c r="G65" s="7"/>
